--- a/natmiOut/OldD2/LR-pairs_lrc2p/Adam17-Itgb1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Adam17-Itgb1.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>20.9752447989059</v>
+        <v>20.997495</v>
       </c>
       <c r="H2">
-        <v>20.9752447989059</v>
+        <v>41.99499</v>
       </c>
       <c r="I2">
-        <v>0.1199875616979295</v>
+        <v>0.1182619877338827</v>
       </c>
       <c r="J2">
-        <v>0.1199875616979295</v>
+        <v>0.0841428544402326</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N2">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O2">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P2">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q2">
-        <v>3451.940901021777</v>
+        <v>3455.710414437398</v>
       </c>
       <c r="R2">
-        <v>3451.940901021777</v>
+        <v>13822.84165774959</v>
       </c>
       <c r="S2">
-        <v>0.02842854675334818</v>
+        <v>0.02744583379109282</v>
       </c>
       <c r="T2">
-        <v>0.02842854675334818</v>
+        <v>0.01519281721745759</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>20.9752447989059</v>
+        <v>20.997495</v>
       </c>
       <c r="H3">
-        <v>20.9752447989059</v>
+        <v>41.99499</v>
       </c>
       <c r="I3">
-        <v>0.1199875616979295</v>
+        <v>0.1182619877338827</v>
       </c>
       <c r="J3">
-        <v>0.1199875616979295</v>
+        <v>0.0841428544402326</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N3">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O3">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P3">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q3">
-        <v>2336.039901788573</v>
+        <v>2493.75338335836</v>
       </c>
       <c r="R3">
-        <v>2336.039901788573</v>
+        <v>14962.52030015016</v>
       </c>
       <c r="S3">
-        <v>0.01923851580020558</v>
+        <v>0.01980580912963209</v>
       </c>
       <c r="T3">
-        <v>0.01923851580020558</v>
+        <v>0.01644544889257518</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>20.9752447989059</v>
+        <v>20.997495</v>
       </c>
       <c r="H4">
-        <v>20.9752447989059</v>
+        <v>41.99499</v>
       </c>
       <c r="I4">
-        <v>0.1199875616979295</v>
+        <v>0.1182619877338827</v>
       </c>
       <c r="J4">
-        <v>0.1199875616979295</v>
+        <v>0.0841428544402326</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N4">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O4">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P4">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q4">
-        <v>1762.374697562245</v>
+        <v>1774.959344447715</v>
       </c>
       <c r="R4">
-        <v>1762.374697562245</v>
+        <v>10649.75606668629</v>
       </c>
       <c r="S4">
-        <v>0.01451408147565214</v>
+        <v>0.01409702588218466</v>
       </c>
       <c r="T4">
-        <v>0.01451408147565214</v>
+        <v>0.01170524855437116</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>20.9752447989059</v>
+        <v>20.997495</v>
       </c>
       <c r="H5">
-        <v>20.9752447989059</v>
+        <v>41.99499</v>
       </c>
       <c r="I5">
-        <v>0.1199875616979295</v>
+        <v>0.1182619877338827</v>
       </c>
       <c r="J5">
-        <v>0.1199875616979295</v>
+        <v>0.0841428544402326</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N5">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O5">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P5">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q5">
-        <v>1657.071555977475</v>
+        <v>1672.150247567325</v>
       </c>
       <c r="R5">
-        <v>1657.071555977475</v>
+        <v>10032.90148540395</v>
       </c>
       <c r="S5">
-        <v>0.01364685478502978</v>
+        <v>0.0132804987295034</v>
       </c>
       <c r="T5">
-        <v>0.01364685478502978</v>
+        <v>0.01102725779565334</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>20.9752447989059</v>
+        <v>20.997495</v>
       </c>
       <c r="H6">
-        <v>20.9752447989059</v>
+        <v>41.99499</v>
       </c>
       <c r="I6">
-        <v>0.1199875616979295</v>
+        <v>0.1182619877338827</v>
       </c>
       <c r="J6">
-        <v>0.1199875616979295</v>
+        <v>0.0841428544402326</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N6">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O6">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P6">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q6">
-        <v>2434.696442660475</v>
+        <v>2556.09402212358</v>
       </c>
       <c r="R6">
-        <v>2434.696442660475</v>
+        <v>15336.56413274148</v>
       </c>
       <c r="S6">
-        <v>0.02005100424224995</v>
+        <v>0.02030092897614254</v>
       </c>
       <c r="T6">
-        <v>0.02005100424224995</v>
+        <v>0.01685656403956026</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>20.9752447989059</v>
+        <v>20.997495</v>
       </c>
       <c r="H7">
-        <v>20.9752447989059</v>
+        <v>41.99499</v>
       </c>
       <c r="I7">
-        <v>0.1199875616979295</v>
+        <v>0.1182619877338827</v>
       </c>
       <c r="J7">
-        <v>0.1199875616979295</v>
+        <v>0.0841428544402326</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>139.563836886697</v>
+        <v>139.9082645</v>
       </c>
       <c r="N7">
-        <v>139.563836886697</v>
+        <v>279.816529</v>
       </c>
       <c r="O7">
-        <v>0.2009254817773325</v>
+        <v>0.1972898618770847</v>
       </c>
       <c r="P7">
-        <v>0.2009254817773325</v>
+        <v>0.1534951247677137</v>
       </c>
       <c r="Q7">
-        <v>2927.385643773043</v>
+        <v>2937.723084297428</v>
       </c>
       <c r="R7">
-        <v>2927.385643773043</v>
+        <v>11750.89233718971</v>
       </c>
       <c r="S7">
-        <v>0.0241085586414439</v>
+        <v>0.02333189122532721</v>
       </c>
       <c r="T7">
-        <v>0.0241085586414439</v>
+        <v>0.01291551794061508</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>16.523290398372</v>
+        <v>17.82618</v>
       </c>
       <c r="H8">
-        <v>16.523290398372</v>
+        <v>53.47854</v>
       </c>
       <c r="I8">
-        <v>0.09452043802754007</v>
+        <v>0.100400523038676</v>
       </c>
       <c r="J8">
-        <v>0.09452043802754007</v>
+        <v>0.1071517580286638</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N8">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O8">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P8">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q8">
-        <v>2719.273242931395</v>
+        <v>2933.78404784169</v>
       </c>
       <c r="R8">
-        <v>2719.273242931395</v>
+        <v>17602.70428705014</v>
       </c>
       <c r="S8">
-        <v>0.02239464369129887</v>
+        <v>0.02330060673476065</v>
       </c>
       <c r="T8">
-        <v>0.02239464369129887</v>
+        <v>0.01934730031550179</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>16.523290398372</v>
+        <v>17.82618</v>
       </c>
       <c r="H9">
-        <v>16.523290398372</v>
+        <v>53.47854</v>
       </c>
       <c r="I9">
-        <v>0.09452043802754007</v>
+        <v>0.100400523038676</v>
       </c>
       <c r="J9">
-        <v>0.09452043802754007</v>
+        <v>0.1071517580286638</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N9">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O9">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P9">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q9">
-        <v>1840.220033162635</v>
+        <v>2117.11428850704</v>
       </c>
       <c r="R9">
-        <v>1840.220033162635</v>
+        <v>19054.02859656336</v>
       </c>
       <c r="S9">
-        <v>0.0151551787093825</v>
+        <v>0.01681447804085512</v>
       </c>
       <c r="T9">
-        <v>0.0151551787093825</v>
+        <v>0.02094246471828038</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>16.523290398372</v>
+        <v>17.82618</v>
       </c>
       <c r="H10">
-        <v>16.523290398372</v>
+        <v>53.47854</v>
       </c>
       <c r="I10">
-        <v>0.09452043802754007</v>
+        <v>0.100400523038676</v>
       </c>
       <c r="J10">
-        <v>0.09452043802754007</v>
+        <v>0.1071517580286638</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N10">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O10">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P10">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q10">
-        <v>1388.314138773863</v>
+        <v>1506.88188123426</v>
       </c>
       <c r="R10">
-        <v>1388.314138773863</v>
+        <v>13561.93693110834</v>
       </c>
       <c r="S10">
-        <v>0.0114334962660527</v>
+        <v>0.01196790954542351</v>
       </c>
       <c r="T10">
-        <v>0.0114334962660527</v>
+        <v>0.0149060543418365</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>16.523290398372</v>
+        <v>17.82618</v>
       </c>
       <c r="H11">
-        <v>16.523290398372</v>
+        <v>53.47854</v>
       </c>
       <c r="I11">
-        <v>0.09452043802754007</v>
+        <v>0.100400523038676</v>
       </c>
       <c r="J11">
-        <v>0.09452043802754007</v>
+        <v>0.1071517580286638</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N11">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O11">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P11">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q11">
-        <v>1305.361381609533</v>
+        <v>1419.6003523363</v>
       </c>
       <c r="R11">
-        <v>1305.361381609533</v>
+        <v>12776.4031710267</v>
       </c>
       <c r="S11">
-        <v>0.01075033673262405</v>
+        <v>0.0112747049513239</v>
       </c>
       <c r="T11">
-        <v>0.01075033673262405</v>
+        <v>0.01404266668750628</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>16.523290398372</v>
+        <v>17.82618</v>
       </c>
       <c r="H12">
-        <v>16.523290398372</v>
+        <v>53.47854</v>
       </c>
       <c r="I12">
-        <v>0.09452043802754007</v>
+        <v>0.100400523038676</v>
       </c>
       <c r="J12">
-        <v>0.09452043802754007</v>
+        <v>0.1071517580286638</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N12">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O12">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P12">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q12">
-        <v>1917.936917525783</v>
+        <v>2170.03943257512</v>
       </c>
       <c r="R12">
-        <v>1917.936917525783</v>
+        <v>19530.35489317608</v>
       </c>
       <c r="S12">
-        <v>0.01579521807969395</v>
+        <v>0.01723481844362542</v>
       </c>
       <c r="T12">
-        <v>0.01579521807969395</v>
+        <v>0.02146599949784926</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>16.523290398372</v>
+        <v>17.82618</v>
       </c>
       <c r="H13">
-        <v>16.523290398372</v>
+        <v>53.47854</v>
       </c>
       <c r="I13">
-        <v>0.09452043802754007</v>
+        <v>0.100400523038676</v>
       </c>
       <c r="J13">
-        <v>0.09452043802754007</v>
+        <v>0.1071517580286638</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>139.563836886697</v>
+        <v>139.9082645</v>
       </c>
       <c r="N13">
-        <v>139.563836886697</v>
+        <v>279.816529</v>
       </c>
       <c r="O13">
-        <v>0.2009254817773325</v>
+        <v>0.1972898618770847</v>
       </c>
       <c r="P13">
-        <v>0.2009254817773325</v>
+        <v>0.1534951247677137</v>
       </c>
       <c r="Q13">
-        <v>2306.053805989917</v>
+        <v>2494.02990646461</v>
       </c>
       <c r="R13">
-        <v>2306.053805989917</v>
+        <v>14964.17943878766</v>
       </c>
       <c r="S13">
-        <v>0.01899156454848798</v>
+        <v>0.01980800532268746</v>
       </c>
       <c r="T13">
-        <v>0.01899156454848798</v>
+        <v>0.01644727246768963</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>45.9326989397661</v>
+        <v>46.51111466666666</v>
       </c>
       <c r="H14">
-        <v>45.9326989397661</v>
+        <v>139.533344</v>
       </c>
       <c r="I14">
-        <v>0.2627551001585968</v>
+        <v>0.2619596705320584</v>
       </c>
       <c r="J14">
-        <v>0.2627551001585968</v>
+        <v>0.279574631491778</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N14">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O14">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P14">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q14">
-        <v>7559.242511094258</v>
+        <v>7654.672299752517</v>
       </c>
       <c r="R14">
-        <v>7559.242511094258</v>
+        <v>45928.03379851511</v>
       </c>
       <c r="S14">
-        <v>0.06225433323117731</v>
+        <v>0.06079469587109285</v>
       </c>
       <c r="T14">
-        <v>0.06225433323117731</v>
+        <v>0.05047994037223565</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>45.9326989397661</v>
+        <v>46.51111466666666</v>
       </c>
       <c r="H15">
-        <v>45.9326989397661</v>
+        <v>139.533344</v>
       </c>
       <c r="I15">
-        <v>0.2627551001585968</v>
+        <v>0.2619596705320584</v>
       </c>
       <c r="J15">
-        <v>0.2627551001585968</v>
+        <v>0.279574631491778</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N15">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O15">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P15">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q15">
-        <v>5115.58356285464</v>
+        <v>5523.86127791761</v>
       </c>
       <c r="R15">
-        <v>5115.58356285464</v>
+        <v>49714.75150125849</v>
       </c>
       <c r="S15">
-        <v>0.04212951804714431</v>
+        <v>0.04387143606865637</v>
       </c>
       <c r="T15">
-        <v>0.04212951804714431</v>
+        <v>0.0546419579469387</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>45.9326989397661</v>
+        <v>46.51111466666666</v>
       </c>
       <c r="H16">
-        <v>45.9326989397661</v>
+        <v>139.533344</v>
       </c>
       <c r="I16">
-        <v>0.2627551001585968</v>
+        <v>0.2619596705320584</v>
       </c>
       <c r="J16">
-        <v>0.2627551001585968</v>
+        <v>0.279574631491778</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N16">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O16">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P16">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q16">
-        <v>3859.341198554708</v>
+        <v>3931.675545024736</v>
       </c>
       <c r="R16">
-        <v>3859.341198554708</v>
+        <v>35385.07990522263</v>
       </c>
       <c r="S16">
-        <v>0.03178370222611848</v>
+        <v>0.03122602897465904</v>
       </c>
       <c r="T16">
-        <v>0.03178370222611848</v>
+        <v>0.03889207910616419</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>45.9326989397661</v>
+        <v>46.51111466666666</v>
       </c>
       <c r="H17">
-        <v>45.9326989397661</v>
+        <v>139.533344</v>
       </c>
       <c r="I17">
-        <v>0.2627551001585968</v>
+        <v>0.2619596705320584</v>
       </c>
       <c r="J17">
-        <v>0.2627551001585968</v>
+        <v>0.279574631491778</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N17">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O17">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P17">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q17">
-        <v>3628.742817167661</v>
+        <v>3703.945251778791</v>
       </c>
       <c r="R17">
-        <v>3628.742817167661</v>
+        <v>33335.50726600912</v>
       </c>
       <c r="S17">
-        <v>0.02988460341345699</v>
+        <v>0.02941735665318427</v>
       </c>
       <c r="T17">
-        <v>0.02988460341345699</v>
+        <v>0.03663937425339498</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>45.9326989397661</v>
+        <v>46.51111466666666</v>
       </c>
       <c r="H18">
-        <v>45.9326989397661</v>
+        <v>139.533344</v>
       </c>
       <c r="I18">
-        <v>0.2627551001585968</v>
+        <v>0.2619596705320584</v>
       </c>
       <c r="J18">
-        <v>0.2627551001585968</v>
+        <v>0.279574631491778</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N18">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O18">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P18">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q18">
-        <v>5331.626866937752</v>
+        <v>5661.950730873898</v>
       </c>
       <c r="R18">
-        <v>5331.626866937752</v>
+        <v>50957.55657786509</v>
       </c>
       <c r="S18">
-        <v>0.04390874815188238</v>
+        <v>0.04496816574782951</v>
       </c>
       <c r="T18">
-        <v>0.04390874815188238</v>
+        <v>0.05600793687032646</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>45.9326989397661</v>
+        <v>46.51111466666666</v>
       </c>
       <c r="H19">
-        <v>45.9326989397661</v>
+        <v>139.533344</v>
       </c>
       <c r="I19">
-        <v>0.2627551001585968</v>
+        <v>0.2619596705320584</v>
       </c>
       <c r="J19">
-        <v>0.2627551001585968</v>
+        <v>0.279574631491778</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>139.563836886697</v>
+        <v>139.9082645</v>
       </c>
       <c r="N19">
-        <v>139.563836886697</v>
+        <v>279.816529</v>
       </c>
       <c r="O19">
-        <v>0.2009254817773325</v>
+        <v>0.1972898618770847</v>
       </c>
       <c r="P19">
-        <v>0.2009254817773325</v>
+        <v>0.1534951247677137</v>
       </c>
       <c r="Q19">
-        <v>6410.543702595276</v>
+        <v>6507.289332973829</v>
       </c>
       <c r="R19">
-        <v>6410.543702595276</v>
+        <v>39043.73599784297</v>
       </c>
       <c r="S19">
-        <v>0.05279419508881731</v>
+        <v>0.05168198721663644</v>
       </c>
       <c r="T19">
-        <v>0.05279419508881731</v>
+        <v>0.04291334294271805</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>65.0941580498817</v>
+        <v>65.40105833333332</v>
       </c>
       <c r="H20">
-        <v>65.0941580498817</v>
+        <v>196.203175</v>
       </c>
       <c r="I20">
-        <v>0.3723670155016433</v>
+        <v>0.3683515180453484</v>
       </c>
       <c r="J20">
-        <v>0.3723670155016433</v>
+        <v>0.3931205887830068</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N20">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O20">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P20">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q20">
-        <v>10712.6848217611</v>
+        <v>10763.52766831128</v>
       </c>
       <c r="R20">
-        <v>10712.6848217611</v>
+        <v>64581.16600986767</v>
       </c>
       <c r="S20">
-        <v>0.08822458728049858</v>
+        <v>0.08548574850372544</v>
       </c>
       <c r="T20">
-        <v>0.08822458728049858</v>
+        <v>0.07098177604661518</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>65.0941580498817</v>
+        <v>65.40105833333332</v>
       </c>
       <c r="H21">
-        <v>65.0941580498817</v>
+        <v>196.203175</v>
       </c>
       <c r="I21">
-        <v>0.3723670155016433</v>
+        <v>0.3683515180453484</v>
       </c>
       <c r="J21">
-        <v>0.3723670155016433</v>
+        <v>0.3931205887830068</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N21">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O21">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P21">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q21">
-        <v>7249.619827358931</v>
+        <v>7767.312743447132</v>
       </c>
       <c r="R21">
-        <v>7249.619827358931</v>
+        <v>69905.81469102419</v>
       </c>
       <c r="S21">
-        <v>0.05970442777426133</v>
+        <v>0.0616893052350261</v>
       </c>
       <c r="T21">
-        <v>0.05970442777426133</v>
+        <v>0.07683414824062307</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>65.0941580498817</v>
+        <v>65.40105833333332</v>
       </c>
       <c r="H22">
-        <v>65.0941580498817</v>
+        <v>196.203175</v>
       </c>
       <c r="I22">
-        <v>0.3723670155016433</v>
+        <v>0.3683515180453484</v>
       </c>
       <c r="J22">
-        <v>0.3723670155016433</v>
+        <v>0.3931205887830068</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N22">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O22">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P22">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q22">
-        <v>5469.318628033995</v>
+        <v>5528.479450787825</v>
       </c>
       <c r="R22">
-        <v>5469.318628033995</v>
+        <v>49756.31505709043</v>
       </c>
       <c r="S22">
-        <v>0.04504271213913277</v>
+        <v>0.04390811437494179</v>
       </c>
       <c r="T22">
-        <v>0.04504271213913277</v>
+        <v>0.054687640847915</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>65.0941580498817</v>
+        <v>65.40105833333332</v>
       </c>
       <c r="H23">
-        <v>65.0941580498817</v>
+        <v>196.203175</v>
       </c>
       <c r="I23">
-        <v>0.3723670155016433</v>
+        <v>0.3683515180453484</v>
       </c>
       <c r="J23">
-        <v>0.3723670155016433</v>
+        <v>0.3931205887830068</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N23">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O23">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P23">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q23">
-        <v>5142.522950215465</v>
+        <v>5208.259170117596</v>
       </c>
       <c r="R23">
-        <v>5142.522950215465</v>
+        <v>46874.33253105838</v>
       </c>
       <c r="S23">
-        <v>0.04235137805432667</v>
+        <v>0.04136487100504183</v>
       </c>
       <c r="T23">
-        <v>0.04235137805432667</v>
+        <v>0.05152002634244435</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>65.0941580498817</v>
+        <v>65.40105833333332</v>
       </c>
       <c r="H24">
-        <v>65.0941580498817</v>
+        <v>196.203175</v>
       </c>
       <c r="I24">
-        <v>0.3723670155016433</v>
+        <v>0.3683515180453484</v>
       </c>
       <c r="J24">
-        <v>0.3723670155016433</v>
+        <v>0.3931205887830068</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N24">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O24">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P24">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q24">
-        <v>7555.78857655537</v>
+        <v>7961.485607992231</v>
       </c>
       <c r="R24">
-        <v>7555.78857655537</v>
+        <v>71653.37047193009</v>
       </c>
       <c r="S24">
-        <v>0.0622258882657688</v>
+        <v>0.06323145880923201</v>
       </c>
       <c r="T24">
-        <v>0.0622258882657688</v>
+        <v>0.07875490348140451</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>65.0941580498817</v>
+        <v>65.40105833333332</v>
       </c>
       <c r="H25">
-        <v>65.0941580498817</v>
+        <v>196.203175</v>
       </c>
       <c r="I25">
-        <v>0.3723670155016433</v>
+        <v>0.3683515180453484</v>
       </c>
       <c r="J25">
-        <v>0.3723670155016433</v>
+        <v>0.3931205887830068</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>139.563836886697</v>
+        <v>139.9082645</v>
       </c>
       <c r="N25">
-        <v>139.563836886697</v>
+        <v>279.816529</v>
       </c>
       <c r="O25">
-        <v>0.2009254817773325</v>
+        <v>0.1972898618770847</v>
       </c>
       <c r="P25">
-        <v>0.2009254817773325</v>
+        <v>0.1534951247677137</v>
       </c>
       <c r="Q25">
-        <v>9084.790456350564</v>
+        <v>9150.148567879927</v>
       </c>
       <c r="R25">
-        <v>9084.790456350564</v>
+        <v>54900.89140727957</v>
       </c>
       <c r="S25">
-        <v>0.07481802198765511</v>
+        <v>0.07267202011738128</v>
       </c>
       <c r="T25">
-        <v>0.07481802198765511</v>
+        <v>0.0603420938240047</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>13.7623499900115</v>
+        <v>14.25188766666667</v>
       </c>
       <c r="H26">
-        <v>13.7623499900115</v>
+        <v>42.755663</v>
       </c>
       <c r="I26">
-        <v>0.07872665298386122</v>
+        <v>0.08026941139502627</v>
       </c>
       <c r="J26">
-        <v>0.07872665298386122</v>
+        <v>0.0856669695195698</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N26">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O26">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P26">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q26">
-        <v>2264.899374484315</v>
+        <v>2345.536771652614</v>
       </c>
       <c r="R26">
-        <v>2264.899374484315</v>
+        <v>14073.22062991568</v>
       </c>
       <c r="S26">
-        <v>0.01865263618507998</v>
+        <v>0.01862864785102504</v>
       </c>
       <c r="T26">
-        <v>0.01865263618507998</v>
+        <v>0.01546801113585726</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>13.7623499900115</v>
+        <v>14.25188766666667</v>
       </c>
       <c r="H27">
-        <v>13.7623499900115</v>
+        <v>42.755663</v>
       </c>
       <c r="I27">
-        <v>0.07872665298386122</v>
+        <v>0.08026941139502627</v>
       </c>
       <c r="J27">
-        <v>0.07872665298386122</v>
+        <v>0.0856669695195698</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N27">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O27">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P27">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q27">
-        <v>1532.730560585562</v>
+        <v>1692.615861463154</v>
       </c>
       <c r="R27">
-        <v>1532.730560585562</v>
+        <v>15233.54275316839</v>
       </c>
       <c r="S27">
-        <v>0.01262284136701022</v>
+        <v>0.01344304007992181</v>
       </c>
       <c r="T27">
-        <v>0.01262284136701022</v>
+        <v>0.01674333225783998</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>13.7623499900115</v>
+        <v>14.25188766666667</v>
       </c>
       <c r="H28">
-        <v>13.7623499900115</v>
+        <v>42.755663</v>
       </c>
       <c r="I28">
-        <v>0.07872665298386122</v>
+        <v>0.08026941139502627</v>
       </c>
       <c r="J28">
-        <v>0.07872665298386122</v>
+        <v>0.0856669695195698</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N28">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O28">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P28">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q28">
-        <v>1156.335367425958</v>
+        <v>1204.739955407497</v>
       </c>
       <c r="R28">
-        <v>1156.335367425958</v>
+        <v>10842.65959866747</v>
       </c>
       <c r="S28">
-        <v>0.009523029216893164</v>
+        <v>0.009568247512714649</v>
       </c>
       <c r="T28">
-        <v>0.009523029216893164</v>
+        <v>0.01191727066780896</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>13.7623499900115</v>
+        <v>14.25188766666667</v>
       </c>
       <c r="H29">
-        <v>13.7623499900115</v>
+        <v>42.755663</v>
       </c>
       <c r="I29">
-        <v>0.07872665298386122</v>
+        <v>0.08026941139502627</v>
       </c>
       <c r="J29">
-        <v>0.07872665298386122</v>
+        <v>0.0856669695195698</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N29">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O29">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P29">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q29">
-        <v>1087.243506833565</v>
+        <v>1134.959074409513</v>
       </c>
       <c r="R29">
-        <v>1087.243506833565</v>
+        <v>10214.63166968561</v>
       </c>
       <c r="S29">
-        <v>0.008954021448380884</v>
+        <v>0.009014036010018898</v>
       </c>
       <c r="T29">
-        <v>0.008954021448380884</v>
+        <v>0.01122699917597497</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>13.7623499900115</v>
+        <v>14.25188766666667</v>
       </c>
       <c r="H30">
-        <v>13.7623499900115</v>
+        <v>42.755663</v>
       </c>
       <c r="I30">
-        <v>0.07872665298386122</v>
+        <v>0.08026941139502627</v>
       </c>
       <c r="J30">
-        <v>0.07872665298386122</v>
+        <v>0.0856669695195698</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N30">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O30">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P30">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q30">
-        <v>1597.461430584934</v>
+        <v>1734.92908886243</v>
       </c>
       <c r="R30">
-        <v>1597.461430584934</v>
+        <v>15614.36179976187</v>
       </c>
       <c r="S30">
-        <v>0.01315593408699779</v>
+        <v>0.01377909885426627</v>
       </c>
       <c r="T30">
-        <v>0.01315593408699779</v>
+        <v>0.01716189410721033</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>13.7623499900115</v>
+        <v>14.25188766666667</v>
       </c>
       <c r="H31">
-        <v>13.7623499900115</v>
+        <v>42.755663</v>
       </c>
       <c r="I31">
-        <v>0.07872665298386122</v>
+        <v>0.08026941139502627</v>
       </c>
       <c r="J31">
-        <v>0.07872665298386122</v>
+        <v>0.0856669695195698</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>139.563836886697</v>
+        <v>139.9082645</v>
       </c>
       <c r="N31">
-        <v>139.563836886697</v>
+        <v>279.816529</v>
       </c>
       <c r="O31">
-        <v>0.2009254817773325</v>
+        <v>0.1972898618770847</v>
       </c>
       <c r="P31">
-        <v>0.2009254817773325</v>
+        <v>0.1534951247677137</v>
       </c>
       <c r="Q31">
-        <v>1920.726369183601</v>
+        <v>1993.956869292288</v>
       </c>
       <c r="R31">
-        <v>1920.726369183601</v>
+        <v>11963.74121575373</v>
       </c>
       <c r="S31">
-        <v>0.01581819067949919</v>
+        <v>0.01583634108707963</v>
       </c>
       <c r="T31">
-        <v>0.01581819067949919</v>
+        <v>0.01314946217487829</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>12.5240841664582</v>
+        <v>12.562933</v>
       </c>
       <c r="H32">
-        <v>12.5240841664582</v>
+        <v>25.125866</v>
       </c>
       <c r="I32">
-        <v>0.07164323163042896</v>
+        <v>0.07075688925500828</v>
       </c>
       <c r="J32">
-        <v>0.07164323163042896</v>
+        <v>0.05034319773674883</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N32">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O32">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P32">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q32">
-        <v>2061.115319344991</v>
+        <v>2067.573222614377</v>
       </c>
       <c r="R32">
-        <v>2061.115319344991</v>
+        <v>8270.292890457507</v>
       </c>
       <c r="S32">
-        <v>0.01697436743563518</v>
+        <v>0.01642101455657616</v>
       </c>
       <c r="T32">
-        <v>0.01697436743563518</v>
+        <v>0.009089957863267314</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>12.5240841664582</v>
+        <v>12.562933</v>
       </c>
       <c r="H33">
-        <v>12.5240841664582</v>
+        <v>25.125866</v>
       </c>
       <c r="I33">
-        <v>0.07164323163042896</v>
+        <v>0.07075688925500828</v>
       </c>
       <c r="J33">
-        <v>0.07164323163042896</v>
+        <v>0.05034319773674883</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N33">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O33">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P33">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q33">
-        <v>1394.82330846174</v>
+        <v>1492.028295454024</v>
       </c>
       <c r="R33">
-        <v>1394.82330846174</v>
+        <v>8952.169772724144</v>
       </c>
       <c r="S33">
-        <v>0.01148710269794222</v>
+        <v>0.01184993986693919</v>
       </c>
       <c r="T33">
-        <v>0.01148710269794222</v>
+        <v>0.009839415253693175</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>12.5240841664582</v>
+        <v>12.562933</v>
       </c>
       <c r="H34">
-        <v>12.5240841664582</v>
+        <v>25.125866</v>
       </c>
       <c r="I34">
-        <v>0.07164323163042896</v>
+        <v>0.07075688925500828</v>
       </c>
       <c r="J34">
-        <v>0.07164323163042896</v>
+        <v>0.05034319773674883</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N34">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O34">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P34">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q34">
-        <v>1052.294228587844</v>
+        <v>1061.969312149881</v>
       </c>
       <c r="R34">
-        <v>1052.294228587844</v>
+        <v>6371.815872899287</v>
       </c>
       <c r="S34">
-        <v>0.008666195781866674</v>
+        <v>0.00843433903221083</v>
       </c>
       <c r="T34">
-        <v>0.008666195781866674</v>
+        <v>0.007003323650602693</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>12.5240841664582</v>
+        <v>12.562933</v>
       </c>
       <c r="H35">
-        <v>12.5240841664582</v>
+        <v>25.125866</v>
       </c>
       <c r="I35">
-        <v>0.07164323163042896</v>
+        <v>0.07075688925500828</v>
       </c>
       <c r="J35">
-        <v>0.07164323163042896</v>
+        <v>0.05034319773674883</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N35">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O35">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P35">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q35">
-        <v>989.4189000353537</v>
+        <v>1000.457984446322</v>
       </c>
       <c r="R35">
-        <v>989.4189000353537</v>
+        <v>6002.747906677931</v>
       </c>
       <c r="S35">
-        <v>0.008148384420479373</v>
+        <v>0.0079458057137452</v>
       </c>
       <c r="T35">
-        <v>0.008148384420479373</v>
+        <v>0.006597677525843948</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>12.5240841664582</v>
+        <v>12.562933</v>
       </c>
       <c r="H36">
-        <v>12.5240841664582</v>
+        <v>25.125866</v>
       </c>
       <c r="I36">
-        <v>0.07164323163042896</v>
+        <v>0.07075688925500828</v>
       </c>
       <c r="J36">
-        <v>0.07164323163042896</v>
+        <v>0.05034319773674883</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N36">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O36">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P36">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q36">
-        <v>1453.730026037488</v>
+        <v>1529.327090761972</v>
       </c>
       <c r="R36">
-        <v>1453.730026037488</v>
+        <v>9175.962544571832</v>
       </c>
       <c r="S36">
-        <v>0.01197223046307653</v>
+        <v>0.01214617317756415</v>
       </c>
       <c r="T36">
-        <v>0.01197223046307653</v>
+        <v>0.01008538802553375</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>12.5240841664582</v>
+        <v>12.562933</v>
       </c>
       <c r="H37">
-        <v>12.5240841664582</v>
+        <v>25.125866</v>
       </c>
       <c r="I37">
-        <v>0.07164323163042896</v>
+        <v>0.07075688925500828</v>
       </c>
       <c r="J37">
-        <v>0.07164323163042896</v>
+        <v>0.05034319773674883</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>139.563836886697</v>
+        <v>139.9082645</v>
       </c>
       <c r="N37">
-        <v>139.563836886697</v>
+        <v>279.816529</v>
       </c>
       <c r="O37">
-        <v>0.2009254817773325</v>
+        <v>0.1972898618770847</v>
       </c>
       <c r="P37">
-        <v>0.2009254817773325</v>
+        <v>0.1534951247677137</v>
       </c>
       <c r="Q37">
-        <v>1747.909239762837</v>
+        <v>1757.658153059779</v>
       </c>
       <c r="R37">
-        <v>1747.909239762837</v>
+        <v>7030.632612239115</v>
       </c>
       <c r="S37">
-        <v>0.01439495083142896</v>
+        <v>0.01395961690797277</v>
       </c>
       <c r="T37">
-        <v>0.01439495083142896</v>
+        <v>0.007727435417807944</v>
       </c>
     </row>
   </sheetData>
